--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-authorization-deadline.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,9 +319,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:endDate</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:endDate.value[x]</t>
@@ -1186,24 +1186,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1291,7 +1291,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1405,10 +1405,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1437,7 +1437,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1497,7 +1497,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>81</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1534,16 +1534,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1593,7 +1593,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
@@ -1608,7 +1608,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -1705,13 +1705,13 @@
         <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>30</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1810,7 +1810,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -1824,7 +1824,7 @@
         <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1927,7 +1927,7 @@
         <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1956,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2016,7 +2016,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>81</v>
@@ -2030,7 +2030,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2053,16 +2053,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2112,7 +2112,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
@@ -2127,7 +2127,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -2224,21 +2224,21 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2261,16 +2261,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2320,7 +2320,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>83</v>
@@ -2335,7 +2335,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -2432,13 +2432,13 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
